--- a/Output_testing/R1_201907/Country/HKD/MN/SURINAME_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SURINAME_201907_HKD_MN.xlsx
@@ -655,8 +655,10 @@
       <c r="F10" s="8" t="n">
         <v>3.52324</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.355711</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-16.04252619427894</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SURINAME_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SURINAME_201907_HKD_MN.xlsx
@@ -812,136 +812,467 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>64.60771800000001</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>75.35629589157567</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>24.929126</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>60.34965876675736</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>19.666249</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>47.09235789738852</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>14.289776</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>53.88777342675687</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>803.9344855463102</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>6.241372</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.279728951290237</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>7.198383</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>17.4262008913761</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>7.100068</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>17.00166327355031</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3.647433</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.75473227105002</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-19.97277159293861</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.774693</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.9035761785168209</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0.5343</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.293459813997428</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>2.6559</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.359758454175688</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.44374</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.215519363907651</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>56.84605757196495</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.201675</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.401593798213229</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1.183033</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.863944683011079</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.247105</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.986289606910942</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.881414</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.3238756105884</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>18.02876085160403</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.722626</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.8428469594754261</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.345232</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.256604028641941</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.094311</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.620412528238055</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.662084</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.496766400080791</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-2.172904445987678</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2201738286042525</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.874105</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.093112189309552</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.654066</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.466529945196143</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-15.68826367574967</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>6.082013</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>7.093857907880445</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.5159820000000001</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.249114695388398</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.857358524747603</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.05620371594191512</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.625796</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.514957847202573</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.679967300280918</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.61657</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7191467644449043</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.9106170125285733</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.536166</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.283891054385166</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.65765763863243</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>72.44406783650507</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.4931958594352611</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.9671680536196831</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.8108109999999999</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.941549799310458</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.540460264610839</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-32.72751526210305</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>4.983321</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.812380059588279</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>4.109343</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>9.948100378872608</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7.776305</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>18.62096519673131</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.153064</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>8.119359254148339</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-62.73912102935959</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1304,513 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>5.428834</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>63.77317060907883</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>5.533319</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>62.72651320547672</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>5.738656</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>51.87028956727335</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.352211</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>44.68919898586433</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0.4102723547063203</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.774693</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>9.100412511905708</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.5343</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>6.056902919511095</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>2.6559</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>24.00602197826831</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>2.44374</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>32.57813518591643</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>56.84605757196495</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.902258</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>10.5989340192399</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.08692</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>12.32148403757252</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.106435</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>10.00079179469306</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.78564</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.47357170871835</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>21.51433551777846</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.693665</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>8.148566780739044</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.330752</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>15.08559924002476</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.05087</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>9.498553528484814</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.662084</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.826414453432974</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>4.536993032277614</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.23834062986184</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.766178381062288</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.214306826228362</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.451765498857111</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-19.24412809512728</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.7203217207558944</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.3351304903790127</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.6281209681515951</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.3569845008096074</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-39.31331444759206</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.7458482149779553</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.1787823618633904</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.3563708831421306</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.3310285360969215</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>57.4472132394902</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.4830063796265449</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.4269759469649735</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.4255444537583765</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.2929011303042754</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.4401058932487416</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.102433417145241</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.534608663454847</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.216684577110688</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1842,499 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>64.60771800000001</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>83.66317809581527</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>24.929126</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>76.73693508646491</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>19.666249</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>64.0645639882745</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>14.289776</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>75.14411831876677</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>803.9344855463102</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.279959574562658</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>0.874105</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.84747516951355</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>0.654066</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.439466993204268</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-15.68826367574967</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>6.082013</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.875847538835279</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>0.5159820000000001</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.588297850465529</v>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.590004371468493</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.06239931834309719</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.625796</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.926327743273847</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.342640149264115</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.5552510000000001</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.7190172434333546</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.066883955034089</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.520232268729233</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.170715704520282</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>95.83930316630452</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.5081529480625094</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.229791744724789</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.8108109999999999</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.641289306969358</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.148103753936123</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-32.72751526210305</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.2361933398598356</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.1771281652285821</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.632651193887327</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0.812538</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.052188709151088</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.665064</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.125406646137919</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.361412</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.434921280026749</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.552452389617791</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-75.78611348511268</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.3113154527890438</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3212752284981603</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3342612468110643</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.122578174640298</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>251.1044226246279</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.221971003682812</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3891373136316786</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.8208929795235098</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9913342065753135</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>48.02829951630127</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>4.131259</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>5.349736350027712</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>3.674537</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>11.31097444979874</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7.109317</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>23.15923559492345</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.30566</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.865934744119223</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-76.12353309388473</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2366,567 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>31.305044</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>37.21567112677124</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>50.301593</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>58.30387844357823</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>92.378826</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>70.14258548521747</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>50.764658</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>68.70642504345153</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>14.22849277205427</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>52.621848</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>62.55724761961508</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>35.376894</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>41.00486693308802</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>38.380217</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>29.14182576712651</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>22.765994</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>30.81218552286253</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>3.124114293583102</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.1279862897729682</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.2466829690952453</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.08553679338775684</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TEA AND MATE</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.06173807542999867</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.05076681312956197</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-14.00532153840838</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>9.090909090909083</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>673.7075332348596</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.3616739808338075</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.2133157436555537</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.1321359537376988</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.4176708892251423</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
